--- a/ParabankProject.cucumber/src/test/resources/TestData/Parabank.xlsx
+++ b/ParabankProject.cucumber/src/test/resources/TestData/Parabank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalyan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391C9EB-D634-406D-88F2-262C1C397586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A05B5-1E7C-4349-88DE-3E7D323652F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C65193CC-A9E6-4010-961F-39001A92AAC0}"/>
   </bookViews>
@@ -120,13 +120,13 @@
     <t>456qwe</t>
   </si>
   <si>
-    <t>asish122_a@aa1</t>
-  </si>
-  <si>
-    <t>arya122_b</t>
-  </si>
-  <si>
-    <t>john122_c</t>
+    <t>asish123_a@aa1</t>
+  </si>
+  <si>
+    <t>arya123_b</t>
+  </si>
+  <si>
+    <t>john123_c</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ParabankProject.cucumber/src/test/resources/TestData/Parabank.xlsx
+++ b/ParabankProject.cucumber/src/test/resources/TestData/Parabank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalyan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A05B5-1E7C-4349-88DE-3E7D323652F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B3C7B0-CE55-400D-8B98-9BD4F9E5222F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C65193CC-A9E6-4010-961F-39001A92AAC0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>FirstName</t>
   </si>
@@ -75,9 +75,6 @@
     <t>123-09-43,ss nagar</t>
   </si>
   <si>
-    <t>hyderabad</t>
-  </si>
-  <si>
     <t>Telangana</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>23-01-43,kk nagar</t>
   </si>
   <si>
-    <t>chennai</t>
-  </si>
-  <si>
     <t>Tamilnadu</t>
   </si>
   <si>
@@ -111,22 +105,127 @@
     <t>12-98-43,rs nagar</t>
   </si>
   <si>
-    <t>banglore</t>
-  </si>
-  <si>
     <t>Karnataka</t>
   </si>
   <si>
     <t>456qwe</t>
   </si>
   <si>
-    <t>asish123_a@aa1</t>
-  </si>
-  <si>
-    <t>arya123_b</t>
-  </si>
-  <si>
-    <t>john123_c</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>34-12-43,pi nagar</t>
+  </si>
+  <si>
+    <t>Talyor</t>
+  </si>
+  <si>
+    <t>john3_c</t>
+  </si>
+  <si>
+    <t>arya3_b</t>
+  </si>
+  <si>
+    <t>asish3_a@aa1</t>
+  </si>
+  <si>
+    <t>Talyor3_d</t>
+  </si>
+  <si>
+    <t>097qwe</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>03-11-43,ks nagar</t>
+  </si>
+  <si>
+    <t>Riya3_e</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>453qwe</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>12-48-43,rs nagar</t>
+  </si>
+  <si>
+    <t>432qwe</t>
+  </si>
+  <si>
+    <t>Afia</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>12-98-43,zp nagar</t>
+  </si>
+  <si>
+    <t>Lana3_f</t>
+  </si>
+  <si>
+    <t>Afia3_g</t>
+  </si>
+  <si>
+    <t>324qwe</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Ram3_h</t>
+  </si>
+  <si>
+    <t>342qwe</t>
+  </si>
+  <si>
+    <t>sitha</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>sitha3_i</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>654qwe</t>
+  </si>
+  <si>
+    <t>Charan</t>
+  </si>
+  <si>
+    <t>Charan_j</t>
   </si>
 </sst>
 </file>
@@ -496,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFED51D1-BD37-4B74-BF1E-BC94BD30F0A8}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +609,7 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -561,10 +661,10 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
       <c r="F2">
         <v>123456</v>
@@ -576,30 +676,30 @@
         <v>123987654</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
       <c r="F3">
         <v>654321</v>
@@ -614,27 +714,27 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
       </c>
       <c r="F4">
         <v>321456</v>
@@ -646,13 +746,258 @@
         <v>668954321</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
-        <v>28</v>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>324564</v>
+      </c>
+      <c r="G5">
+        <v>9876034521</v>
+      </c>
+      <c r="H5">
+        <v>321654987</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>123856</v>
+      </c>
+      <c r="G6">
+        <v>9874567890</v>
+      </c>
+      <c r="H6">
+        <v>876124321</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>327456</v>
+      </c>
+      <c r="G7">
+        <v>9878734521</v>
+      </c>
+      <c r="H7">
+        <v>668912321</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>214564</v>
+      </c>
+      <c r="G8">
+        <v>76574567890</v>
+      </c>
+      <c r="H8">
+        <v>612354321</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>321456</v>
+      </c>
+      <c r="G9">
+        <v>9876034521</v>
+      </c>
+      <c r="H9">
+        <v>668954321</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>123856</v>
+      </c>
+      <c r="G10">
+        <v>9874567890</v>
+      </c>
+      <c r="H10">
+        <v>668954321</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>321456</v>
+      </c>
+      <c r="G11">
+        <v>76574567890</v>
+      </c>
+      <c r="H11">
+        <v>321654987</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
